--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisha\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
-  <si>
-    <t>ID No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>First Name</t>
@@ -48,22 +43,16 @@
     <t>rahul</t>
   </si>
   <si>
-    <t>jisha</t>
-  </si>
-  <si>
     <t>bcbvc</t>
   </si>
   <si>
     <t>vbb</t>
   </si>
   <si>
-    <t>bbn</t>
-  </si>
-  <si>
-    <t>bvcb</t>
-  </si>
-  <si>
-    <t>bvnb</t>
+    <t>jiji</t>
+  </si>
+  <si>
+    <t>raj</t>
   </si>
   <si>
     <t>kumar</t>
@@ -75,22 +64,16 @@
     <t>racha</t>
   </si>
   <si>
-    <t>chauhan</t>
-  </si>
-  <si>
     <t>vbcbvc</t>
   </si>
   <si>
     <t>bvb</t>
   </si>
   <si>
-    <t>vbnv</t>
-  </si>
-  <si>
-    <t>cb</t>
-  </si>
-  <si>
-    <t>vn</t>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>nair</t>
   </si>
   <si>
     <t>it</t>
@@ -102,15 +85,6 @@
     <t>bvbv</t>
   </si>
   <si>
-    <t>bnv</t>
-  </si>
-  <si>
-    <t>vcbv</t>
-  </si>
-  <si>
-    <t>vnbvnb</t>
-  </si>
-  <si>
     <t>trainee</t>
   </si>
   <si>
@@ -121,28 +95,13 @@
   </si>
   <si>
     <t>bvcbvc</t>
-  </si>
-  <si>
-    <t>nbvbnv</t>
-  </si>
-  <si>
-    <t>cbvc</t>
-  </si>
-  <si>
-    <t>vnbv</t>
-  </si>
-  <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>jiji</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +164,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,10 +242,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,22 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,177 +475,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
